--- a/distribuidores_admin/comprobantes/iva_ventas3.xlsx
+++ b/distribuidores_admin/comprobantes/iva_ventas3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Dia</t>
   </si>
@@ -56,97 +56,70 @@
     <t>Total</t>
   </si>
   <si>
-    <t>FC B 0003 00000020</t>
+    <t>FC B 0003 00000010</t>
   </si>
   <si>
     <t>Eventual</t>
   </si>
   <si>
-    <t>FC B 0003 00000021</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000022</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000023</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000024</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000025</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000026</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000027</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000028</t>
+    <t>FC B 0003 00000011</t>
+  </si>
+  <si>
+    <t>FC B 0003 00000012</t>
   </si>
   <si>
     <t>Nicolas Bernasconi</t>
   </si>
   <si>
-    <t>FC B 0003 00000029</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000030</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000031</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000032</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000033</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000034</t>
-  </si>
-  <si>
-    <t>FC A 0003 00000004</t>
+    <t>FC A 0003 00000002</t>
   </si>
   <si>
     <t>LOPEZ OSORNIO MATIAS</t>
   </si>
   <si>
-    <t>FC B 0003 00000035</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000036</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000037</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000038</t>
-  </si>
-  <si>
-    <t>FC A 0003 00000005</t>
-  </si>
-  <si>
-    <t>FC A 0003 00000006</t>
-  </si>
-  <si>
-    <t>FC A 0003 00000007</t>
-  </si>
-  <si>
-    <t>FC A 0003 00000008</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000039</t>
-  </si>
-  <si>
-    <t>FC B 0003 00000040</t>
-  </si>
-  <si>
-    <t>FC A 0003 00000009</t>
+    <t>NC A 0003 00000001</t>
+  </si>
+  <si>
+    <t>FC B 0003 00000013</t>
+  </si>
+  <si>
+    <t>FC B 0003 00000014</t>
+  </si>
+  <si>
+    <t>FC C 0003 00000001</t>
+  </si>
+  <si>
+    <t>FC C 0001 00000001</t>
+  </si>
+  <si>
+    <t>FC C 0001 00000002</t>
+  </si>
+  <si>
+    <t>FC C 0001 00000003</t>
+  </si>
+  <si>
+    <t>FC B 0001 00000063</t>
+  </si>
+  <si>
+    <t>FC B 0003 00000015</t>
+  </si>
+  <si>
+    <t>FC B 0003 00000016</t>
+  </si>
+  <si>
+    <t>FC B 0003 00000017</t>
+  </si>
+  <si>
+    <t>FC B 0003 00000018</t>
+  </si>
+  <si>
+    <t>FC A 0003 00000003</t>
+  </si>
+  <si>
+    <t>NC B 0003 00000002</t>
+  </si>
+  <si>
+    <t>FC B 0003 00000019</t>
   </si>
   <si>
     <t>Totales</t>
@@ -526,10 +499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:M30"/>
+      <selection activeCell="A1" sqref="A1:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,15 +511,15 @@
     <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="10" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="8" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -592,7 +565,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -604,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>2599.0</v>
+        <v>7560.0</v>
       </c>
       <c r="F2" s="2">
         <v>2676.0</v>
@@ -619,7 +592,7 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="2">
-        <v>690.9</v>
+        <v>2009.7</v>
       </c>
       <c r="K2" s="2">
         <v>313.95</v>
@@ -628,12 +601,12 @@
         <v>0.0</v>
       </c>
       <c r="M2" s="2">
-        <v>6280.0</v>
+        <v>12560.0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -645,10 +618,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>5522.0</v>
       </c>
       <c r="F3" s="2">
-        <v>2676.0</v>
+        <v>5352.0</v>
       </c>
       <c r="G3" s="2">
         <v>0.0</v>
@@ -660,36 +633,36 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="2">
-        <v>0.0</v>
+        <v>1467.9</v>
       </c>
       <c r="K3" s="2">
-        <v>313.95</v>
+        <v>627.9</v>
       </c>
       <c r="L3" s="2">
         <v>0.0</v>
       </c>
       <c r="M3" s="2">
-        <v>2990.0</v>
+        <v>12970.0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>20308762050</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
-        <v>5198.0</v>
+        <v>14670.0</v>
       </c>
       <c r="F4" s="2">
-        <v>2676.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="2">
         <v>0.0</v>
@@ -701,36 +674,36 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="2">
-        <v>1381.8</v>
+        <v>3899.7</v>
       </c>
       <c r="K4" s="2">
-        <v>313.95</v>
+        <v>0.0</v>
       </c>
       <c r="L4" s="2">
         <v>0.0</v>
       </c>
       <c r="M4" s="2">
-        <v>9570.0</v>
+        <v>18570.0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>20321089675</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
-        <v>2599.0</v>
+        <v>12995.0</v>
       </c>
       <c r="F5" s="2">
-        <v>2676.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" s="2">
         <v>0.0</v>
@@ -742,36 +715,36 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="2">
-        <v>690.9</v>
+        <v>3454.5</v>
       </c>
       <c r="K5" s="2">
-        <v>313.95</v>
+        <v>0.0</v>
       </c>
       <c r="L5" s="2">
         <v>0.0</v>
       </c>
       <c r="M5" s="2">
-        <v>6280.0</v>
+        <v>16450.0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>20321089675</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0</v>
+        <v>-12995.0</v>
       </c>
       <c r="F6" s="2">
-        <v>2676.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="2">
         <v>0.0</v>
@@ -783,24 +756,24 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="2">
-        <v>0.0</v>
+        <v>-3454.5</v>
       </c>
       <c r="K6" s="2">
-        <v>313.95</v>
+        <v>0.0</v>
       </c>
       <c r="L6" s="2">
         <v>0.0</v>
       </c>
       <c r="M6" s="2">
-        <v>2990.0</v>
+        <v>-16450.0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -809,10 +782,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0</v>
+        <v>5198.0</v>
       </c>
       <c r="F7" s="2">
-        <v>2676.0</v>
+        <v>5352.0</v>
       </c>
       <c r="G7" s="2">
         <v>0.0</v>
@@ -824,24 +797,24 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="2">
-        <v>0.0</v>
+        <v>1381.8</v>
       </c>
       <c r="K7" s="2">
-        <v>313.95</v>
+        <v>627.9</v>
       </c>
       <c r="L7" s="2">
         <v>0.0</v>
       </c>
       <c r="M7" s="2">
-        <v>2990.0</v>
+        <v>12560.0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -850,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="2">
-        <v>2599.0</v>
+        <v>19868.0</v>
       </c>
       <c r="F8" s="2">
         <v>2676.0</v>
@@ -865,7 +838,7 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="2">
-        <v>690.9</v>
+        <v>5281.5</v>
       </c>
       <c r="K8" s="2">
         <v>313.95</v>
@@ -874,15 +847,15 @@
         <v>0.0</v>
       </c>
       <c r="M8" s="2">
-        <v>6280.0</v>
+        <v>28140.0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -891,10 +864,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="2">
-        <v>2362.0</v>
+        <v>20192.0</v>
       </c>
       <c r="F9" s="2">
-        <v>2676.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="2">
         <v>0.0</v>
@@ -906,24 +879,24 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="2">
-        <v>627.9</v>
+        <v>5367.6</v>
       </c>
       <c r="K9" s="2">
-        <v>313.95</v>
+        <v>0.0</v>
       </c>
       <c r="L9" s="2">
         <v>0.0</v>
       </c>
       <c r="M9" s="2">
-        <v>5980.0</v>
+        <v>25560.0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -932,10 +905,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>2362.0</v>
+        <v>9377.0</v>
       </c>
       <c r="F10" s="2">
-        <v>2676.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="2">
         <v>0.0</v>
@@ -947,36 +920,36 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="2">
-        <v>627.9</v>
+        <v>2492.7</v>
       </c>
       <c r="K10" s="2">
-        <v>313.95</v>
+        <v>0.0</v>
       </c>
       <c r="L10" s="2">
         <v>0.0</v>
       </c>
       <c r="M10" s="2">
-        <v>5980.0</v>
+        <v>11870.0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>20308762050</v>
+        <v>20321089675</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
-        <v>0.0</v>
+        <v>22791.0</v>
       </c>
       <c r="F11" s="2">
-        <v>2706.0</v>
+        <v>2676.0</v>
       </c>
       <c r="G11" s="2">
         <v>0.0</v>
@@ -988,36 +961,36 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="2">
-        <v>0.0</v>
+        <v>6058.5</v>
       </c>
       <c r="K11" s="2">
-        <v>284.12</v>
+        <v>313.95</v>
       </c>
       <c r="L11" s="2">
         <v>0.0</v>
       </c>
       <c r="M11" s="2">
-        <v>2990.0</v>
+        <v>31840.0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>30876205</v>
+        <v>20321089675</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
-        <v>15347.0</v>
+        <v>33978.0</v>
       </c>
       <c r="F12" s="2">
-        <v>0.0</v>
+        <v>5352.0</v>
       </c>
       <c r="G12" s="2">
         <v>0.0</v>
@@ -1029,36 +1002,36 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="2">
-        <v>3222.89</v>
+        <v>9032.1</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0</v>
+        <v>627.9</v>
       </c>
       <c r="L12" s="2">
         <v>0.0</v>
       </c>
       <c r="M12" s="2">
-        <v>18570.0</v>
+        <v>48990.0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2">
-        <v>30876205</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E13" s="2">
-        <v>198017.0</v>
+        <v>17814.0</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0</v>
+        <v>2676.0</v>
       </c>
       <c r="G13" s="2">
         <v>0.0</v>
@@ -1070,36 +1043,36 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="2">
-        <v>41583.5</v>
+        <v>4735.5</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0</v>
+        <v>313.95</v>
       </c>
       <c r="L13" s="2">
         <v>0.0</v>
       </c>
       <c r="M13" s="2">
-        <v>239600.0</v>
+        <v>25540.0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2">
-        <v>30876205</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E14" s="2">
-        <v>0.0</v>
+        <v>24601.0</v>
       </c>
       <c r="F14" s="2">
-        <v>3619909.0</v>
+        <v>2676.0</v>
       </c>
       <c r="G14" s="2">
         <v>0.0</v>
@@ -1111,16 +1084,16 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="2">
-        <v>0.0</v>
+        <v>6539.4</v>
       </c>
       <c r="K14" s="2">
-        <v>380090.0</v>
+        <v>313.95</v>
       </c>
       <c r="L14" s="2">
         <v>0.0</v>
       </c>
       <c r="M14" s="2">
-        <v>4000000.0</v>
+        <v>34130.0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1128,19 +1101,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>30876205</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>0.0</v>
       </c>
       <c r="F15" s="2">
-        <v>36199096.0</v>
+        <v>16056.0</v>
       </c>
       <c r="G15" s="2">
         <v>0.0</v>
@@ -1155,30 +1128,30 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="2">
-        <v>3800900.0</v>
+        <v>1883.7</v>
       </c>
       <c r="L15" s="2">
         <v>0.0</v>
       </c>
       <c r="M15" s="2">
-        <v>40000000.0</v>
+        <v>17940.0</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2">
-        <v>30876205</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E16" s="2">
-        <v>1652893.0</v>
+        <v>20658.0</v>
       </c>
       <c r="F16" s="2">
         <v>0.0</v>
@@ -1193,7 +1166,7 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="2">
-        <v>347107.0</v>
+        <v>5491.5</v>
       </c>
       <c r="K16" s="2">
         <v>0.0</v>
@@ -1202,27 +1175,27 @@
         <v>0.0</v>
       </c>
       <c r="M16" s="2">
-        <v>2000000.0</v>
+        <v>26150.0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>111111</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2">
-        <v>0.0</v>
+        <v>20192.0</v>
       </c>
       <c r="F17" s="2">
-        <v>180995473408.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" s="2">
         <v>0.0</v>
@@ -1234,36 +1207,36 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="2">
-        <v>0.0</v>
+        <v>5367.6</v>
       </c>
       <c r="K17" s="2">
-        <v>19004500000.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" s="2">
         <v>0.0</v>
       </c>
       <c r="M17" s="2">
-        <v>200000000000.0</v>
+        <v>25560.0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
         <v>20321089675</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
-        <v>21950.0</v>
+        <v>5198.0</v>
       </c>
       <c r="F18" s="2">
-        <v>10824.0</v>
+        <v>2676.0</v>
       </c>
       <c r="G18" s="2">
         <v>0.0</v>
@@ -1275,33 +1248,33 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="2">
-        <v>4609.59</v>
+        <v>1381.8</v>
       </c>
       <c r="K18" s="2">
-        <v>1136.47</v>
+        <v>313.95</v>
       </c>
       <c r="L18" s="2">
         <v>0.0</v>
       </c>
       <c r="M18" s="2">
-        <v>38520.0</v>
+        <v>9570.0</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>111111</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2">
-        <v>3876.0</v>
+        <v>-20192.0</v>
       </c>
       <c r="F19" s="2">
         <v>0.0</v>
@@ -1316,7 +1289,7 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="2">
-        <v>813.97</v>
+        <v>-5367.6</v>
       </c>
       <c r="K19" s="2">
         <v>0.0</v>
@@ -1325,27 +1298,27 @@
         <v>0.0</v>
       </c>
       <c r="M19" s="2">
-        <v>4690.0</v>
+        <v>-25560.0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>111111</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0</v>
+        <v>10720.0</v>
       </c>
       <c r="F20" s="2">
-        <v>2706.0</v>
+        <v>2676.0</v>
       </c>
       <c r="G20" s="2">
         <v>0.0</v>
@@ -1357,420 +1330,51 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="2">
-        <v>0.0</v>
+        <v>2849.7</v>
       </c>
       <c r="K20" s="2">
-        <v>284.12</v>
+        <v>313.95</v>
       </c>
       <c r="L20" s="2">
         <v>0.0</v>
       </c>
       <c r="M20" s="2">
-        <v>2990.0</v>
+        <v>16560.0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2">
-        <v>111111</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2719.0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2706.0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>570.99</v>
-      </c>
-      <c r="K21" s="2">
-        <v>284.12</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>6280.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2">
-        <v>111111</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2">
-        <v>10727.0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2252.73</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>12980.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2">
-        <v>20321089675</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4950.0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1039.59</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5990.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20321089675</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2">
-        <v>7339.0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2706.0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1541.16</v>
-      </c>
-      <c r="K24" s="2">
-        <v>284.12</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>11870.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2">
-        <v>20321089675</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2">
-        <v>10727.0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2252.73</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>12980.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2">
-        <v>20321089675</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2719.0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2706.0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>570.99</v>
-      </c>
-      <c r="K26" s="2">
-        <v>284.12</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>6280.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2">
-        <v>111111</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2719.0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2706.0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>570.99</v>
-      </c>
-      <c r="K27" s="2">
-        <v>284.12</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>6280.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="2">
-        <v>111111</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2719.0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2706.0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>570.99</v>
-      </c>
-      <c r="K28" s="2">
-        <v>284.12</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>6280.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2">
-        <v>20321089675</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2706.0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>284.12</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>2990.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <v>1954421.0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>181035348969.0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>411417.42</v>
-      </c>
-      <c r="K30" s="3">
-        <v>19008687224.98</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>200046428630</v>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>218147.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>50844.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>57989.4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>5965.05</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>332950.0</v>
       </c>
     </row>
   </sheetData>
